--- a/output/2017-01-01 to 2017-08-01.xlsx
+++ b/output/2017-01-01 to 2017-08-01.xlsx
@@ -8,14 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="PI hours" sheetId="1" r:id="rId1"/>
-    <sheet name="dept hours" sheetId="2" r:id="rId2"/>
+    <sheet name="department hours" sheetId="2" r:id="rId2"/>
+    <sheet name="unit(accumulative) hours" sheetId="3" r:id="rId3"/>
+    <sheet name="cfop hours" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -29,6 +31,12 @@
     <t>dept</t>
   </si>
   <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>cfop</t>
+  </si>
+  <si>
     <t>Naira Hovakimyan</t>
   </si>
   <si>
@@ -65,6 +73,27 @@
     <t>Dan Work</t>
   </si>
   <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>PHYS</t>
+  </si>
+  <si>
+    <t>ABE</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>CEE</t>
+  </si>
+  <si>
     <t>['ME', 'AE', 'CSL']</t>
   </si>
   <si>
@@ -92,28 +121,85 @@
     <t>['CEE', 'CSL']</t>
   </si>
   <si>
+    <t>['cfop_NH']</t>
+  </si>
+  <si>
+    <t>['cfop_HUTCHINSON']</t>
+  </si>
+  <si>
+    <t>['cfop_PARK']</t>
+  </si>
+  <si>
+    <t>['cfop_CHOUDHURY', 'cfop_RRC']</t>
+  </si>
+  <si>
+    <t>['cfop_KWIAT']</t>
+  </si>
+  <si>
+    <t>['cfop_GC']</t>
+  </si>
+  <si>
+    <t>['cfop_MITRA']</t>
+  </si>
+  <si>
+    <t>['cfop_SELIG']</t>
+  </si>
+  <si>
+    <t>['cfop_SHA']</t>
+  </si>
+  <si>
+    <t>['cfop_WISSA']</t>
+  </si>
+  <si>
+    <t>['cfop_ANSELL']</t>
+  </si>
+  <si>
+    <t>['cfop_WORK']</t>
+  </si>
+  <si>
+    <t>unit(accumulative)</t>
+  </si>
+  <si>
     <t>CSL</t>
   </si>
   <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>ECE</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>PHYS</t>
-  </si>
-  <si>
-    <t>ABE</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>CEE</t>
+    <t>cfop_HUTCHINSON</t>
+  </si>
+  <si>
+    <t>cfop_NH</t>
+  </si>
+  <si>
+    <t>cfop_RRC</t>
+  </si>
+  <si>
+    <t>cfop_PARK</t>
+  </si>
+  <si>
+    <t>cfop_GC</t>
+  </si>
+  <si>
+    <t>cfop_CHOUDHURY</t>
+  </si>
+  <si>
+    <t>cfop_KWIAT</t>
+  </si>
+  <si>
+    <t>cfop_MITRA</t>
+  </si>
+  <si>
+    <t>cfop_SELIG</t>
+  </si>
+  <si>
+    <t>cfop_SHA</t>
+  </si>
+  <si>
+    <t>cfop_WISSA</t>
+  </si>
+  <si>
+    <t>cfop_ANSELL</t>
+  </si>
+  <si>
+    <t>cfop_WORK</t>
   </si>
 </sst>
 </file>
@@ -471,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,13 +576,19 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>216</v>
@@ -505,15 +597,21 @@
         <v>33.02752293577981</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>194</v>
@@ -522,15 +620,21 @@
         <v>29.66360856269113</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>73.5</v>
@@ -541,13 +645,19 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>41.5</v>
@@ -556,15 +666,21 @@
         <v>6.345565749235474</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>41</v>
@@ -573,15 +689,21 @@
         <v>6.269113149847095</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>31</v>
@@ -590,15 +712,21 @@
         <v>4.740061162079511</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>17</v>
@@ -607,15 +735,21 @@
         <v>2.599388379204893</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -624,15 +758,21 @@
         <v>2.140672782874618</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>14</v>
@@ -641,15 +781,21 @@
         <v>2.140672782874618</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -658,15 +804,21 @@
         <v>1.223241590214067</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -675,15 +827,21 @@
         <v>0.4587155963302753</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -693,6 +851,12 @@
       </c>
       <c r="E13" t="s">
         <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -701,6 +865,128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>297.5</v>
+      </c>
+      <c r="D2">
+        <v>45.48929663608563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>252.5</v>
+      </c>
+      <c r="D3">
+        <v>38.6085626911315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>6.269113149847095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>4.740061162079511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>2.599388379204893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>2.140672782874618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.1529051987767584</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -710,7 +996,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -724,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>588</v>
@@ -738,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>297.5</v>
@@ -752,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>293.5</v>
@@ -766,7 +1052,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>233</v>
@@ -780,7 +1066,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>41</v>
@@ -794,7 +1080,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>31</v>
@@ -808,7 +1094,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -822,13 +1108,219 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
         <v>0.06671114076050701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>388</v>
+      </c>
+      <c r="D2">
+        <v>39.63227783452503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>216</v>
+      </c>
+      <c r="D3">
+        <v>22.06332992849847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>83</v>
+      </c>
+      <c r="D4">
+        <v>8.478038815117467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>73.5</v>
+      </c>
+      <c r="D5">
+        <v>7.507660878447395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>62</v>
+      </c>
+      <c r="D6">
+        <v>6.332992849846782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>41.5</v>
+      </c>
+      <c r="D7">
+        <v>4.239019407558733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>4.187946884576098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>3.472931562819203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>1.43003064351379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>1.43003064351379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>0.8171603677221655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0.3064351378958121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.1021450459652707</v>
       </c>
     </row>
   </sheetData>

--- a/output/2017-01-01 to 2017-08-01.xlsx
+++ b/output/2017-01-01 to 2017-08-01.xlsx
@@ -130,7 +130,7 @@
     <t>['cfop_PARK']</t>
   </si>
   <si>
-    <t>['cfop_CHOUDHURY', 'cfop_RRC']</t>
+    <t>['cfop_RRC', 'cfop_CHOUDHURY']</t>
   </si>
   <si>
     <t>['cfop_KWIAT']</t>
